--- a/documentation/DOCS.xlsx
+++ b/documentation/DOCS.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shaha\Documents\github\final_project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shaha\Documents\github\final_project\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B389D595-C4A1-4CC2-8DCA-EFC2F548DF0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{042BF335-B9F2-43B8-8B6F-96743A263454}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tasks" sheetId="1" r:id="rId1"/>
     <sheet name="ATP" sheetId="2" r:id="rId2"/>
-    <sheet name="specification" sheetId="3" r:id="rId3"/>
-    <sheet name="test User page" sheetId="4" r:id="rId4"/>
+    <sheet name="test User page" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">tasks!$A$20:$G$31</definedName>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="145">
   <si>
     <t>Task</t>
   </si>
@@ -231,27 +230,12 @@
     <t>Precedure</t>
   </si>
   <si>
-    <t>module</t>
-  </si>
-  <si>
     <t>requirement</t>
   </si>
   <si>
     <t>user can subscribe to letter notification</t>
   </si>
   <si>
-    <t>web page showcases the company's products portfolio</t>
-  </si>
-  <si>
-    <t>web page showcases the company's main interest and business</t>
-  </si>
-  <si>
-    <t>web page showcases the company's contact avanues</t>
-  </si>
-  <si>
-    <t>web page showcases the company's example uses(project management, information sharing etc..)</t>
-  </si>
-  <si>
     <t>user can purchase without sign-in procedure</t>
   </si>
   <si>
@@ -264,141 +248,12 @@
     <t>user can sign into website</t>
   </si>
   <si>
-    <t>website provides with administrator prevliges</t>
-  </si>
-  <si>
-    <t>admin can add product</t>
-  </si>
-  <si>
-    <t>admin can add user</t>
-  </si>
-  <si>
-    <t>admin can remove user</t>
-  </si>
-  <si>
-    <t>registered user can view past orders</t>
-  </si>
-  <si>
-    <t>registered user can place new order</t>
-  </si>
-  <si>
-    <t>admin can view all orders</t>
-  </si>
-  <si>
-    <t>registered user can start a new project</t>
-  </si>
-  <si>
-    <t>registered user can add new step(s) to a project</t>
-  </si>
-  <si>
-    <t>registered user can send messages(s) to other users</t>
-  </si>
-  <si>
-    <t>registered user can view all messages from any other users(s)</t>
-  </si>
-  <si>
-    <t>registered user can add comments to his\hers or other registered users projects</t>
-  </si>
-  <si>
-    <t>registered user can view personal details</t>
-  </si>
-  <si>
-    <t>registered user can edit personal details</t>
-  </si>
-  <si>
-    <t xml:space="preserve">admin can mark users as 'expert', 'professional', 'amature', 'intern' </t>
-  </si>
-  <si>
-    <t>admin can add\remove suppliers</t>
-  </si>
-  <si>
-    <t>code</t>
-  </si>
-  <si>
-    <t>code should apply most efficient algorithms</t>
-  </si>
-  <si>
-    <t>deployment to both linux and windows platforms</t>
-  </si>
-  <si>
-    <t>code must employ separations of concerns paradigm</t>
-  </si>
-  <si>
-    <t>back end uses OOP</t>
-  </si>
-  <si>
-    <t>derived specifications</t>
-  </si>
-  <si>
-    <t>user is presented with 'log-in' form</t>
-  </si>
-  <si>
-    <t>upon successful registration user is redirected to 'user' page</t>
-  </si>
-  <si>
-    <t>registration to website under regular user privileges only</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#requirement </t>
-  </si>
-  <si>
     <t>user can send messages</t>
   </si>
   <si>
-    <t>sent message apear on the reciever end</t>
-  </si>
-  <si>
-    <t>messages include date, sending party, content</t>
-  </si>
-  <si>
-    <t>messages may include images</t>
-  </si>
-  <si>
-    <t>user may attach files to message text</t>
-  </si>
-  <si>
     <t>user may reply to sent message</t>
   </si>
   <si>
-    <t>replied message apear on receiving party UI</t>
-  </si>
-  <si>
-    <t>replied message apear on sending party UI</t>
-  </si>
-  <si>
-    <t>replied message may contain file upload option</t>
-  </si>
-  <si>
-    <t>user can see past orders</t>
-  </si>
-  <si>
-    <t>user can place a new order</t>
-  </si>
-  <si>
-    <t>user page display data according to privilege (admin, user, super(?))</t>
-  </si>
-  <si>
-    <t>(admin) user can view all sold products</t>
-  </si>
-  <si>
-    <t>(admin) user can add new products</t>
-  </si>
-  <si>
-    <t>(admin) user can add/remove new/old users</t>
-  </si>
-  <si>
-    <t>user can view/edit personal details</t>
-  </si>
-  <si>
-    <t>user can view incoming messages</t>
-  </si>
-  <si>
-    <t>messages are displayed in different color once clicked</t>
-  </si>
-  <si>
-    <t>user can hide messages</t>
-  </si>
-  <si>
     <t>user cannot hide/delete 'admin' messages</t>
   </si>
   <si>
@@ -414,37 +269,10 @@
     <t>user can see all sent messages (outgoing)</t>
   </si>
   <si>
-    <t>user can see all revieved messages by sending user (incoming)</t>
-  </si>
-  <si>
     <t>user can perform actions according to user privliges:</t>
   </si>
   <si>
-    <t>(admin, subscriber, client)</t>
-  </si>
-  <si>
-    <t>admin can remove product</t>
-  </si>
-  <si>
-    <t>admin can edit product</t>
-  </si>
-  <si>
-    <t>admin can add new user</t>
-  </si>
-  <si>
-    <t>admin can edit user</t>
-  </si>
-  <si>
     <t xml:space="preserve">user can see past (supplied) and present orders </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>code version control must be applied</t>
-  </si>
-  <si>
-    <t>build tool must be applied</t>
   </si>
   <si>
     <t>instruction</t>
@@ -645,7 +473,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -673,14 +501,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="14">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -744,18 +566,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -899,7 +709,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -963,76 +773,104 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1049,152 +887,41 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1503,17 +1230,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="56" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48">
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56">
         <v>35</v>
       </c>
-      <c r="G1" s="48"/>
+      <c r="G1" s="56"/>
       <c r="H1" s="6"/>
       <c r="I1" s="6"/>
     </row>
@@ -1543,7 +1270,7 @@
       <c r="I2" s="6"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="57" t="s">
         <v>33</v>
       </c>
       <c r="B3" s="11" t="s">
@@ -1566,7 +1293,7 @@
       <c r="I3" s="6"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="49"/>
+      <c r="A4" s="57"/>
       <c r="B4" s="11" t="s">
         <v>39</v>
       </c>
@@ -1587,7 +1314,7 @@
       <c r="I4" s="6"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="49"/>
+      <c r="A5" s="57"/>
       <c r="B5" s="11" t="s">
         <v>40</v>
       </c>
@@ -1608,7 +1335,7 @@
       <c r="I5" s="6"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="49"/>
+      <c r="A6" s="57"/>
       <c r="B6" s="11"/>
       <c r="C6" s="12"/>
       <c r="D6" s="12"/>
@@ -1619,7 +1346,7 @@
       <c r="I6" s="6"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="49"/>
+      <c r="A7" s="57"/>
       <c r="B7" s="11" t="s">
         <v>42</v>
       </c>
@@ -1640,7 +1367,7 @@
       <c r="I7" s="6"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="49"/>
+      <c r="A8" s="57"/>
       <c r="B8" s="11" t="s">
         <v>41</v>
       </c>
@@ -1661,18 +1388,18 @@
       <c r="I8" s="6"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="51"/>
-      <c r="B9" s="51"/>
-      <c r="C9" s="51"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="51"/>
-      <c r="F9" s="52"/>
+      <c r="A9" s="59"/>
+      <c r="B9" s="59"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="60"/>
       <c r="G9" s="13"/>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="58" t="s">
+      <c r="A10" s="55" t="s">
         <v>31</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -1697,7 +1424,7 @@
       <c r="I10" s="6"/>
     </row>
     <row r="11" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="58"/>
+      <c r="A11" s="55"/>
       <c r="B11" s="7" t="s">
         <v>10</v>
       </c>
@@ -1720,7 +1447,7 @@
       <c r="I11" s="6"/>
     </row>
     <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="58"/>
+      <c r="A12" s="55"/>
       <c r="B12" s="11" t="s">
         <v>12</v>
       </c>
@@ -1743,7 +1470,7 @@
       <c r="I12" s="6"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="58"/>
+      <c r="A13" s="55"/>
       <c r="B13" s="11" t="s">
         <v>13</v>
       </c>
@@ -1766,7 +1493,7 @@
       <c r="I13" s="6"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="58"/>
+      <c r="A14" s="55"/>
       <c r="B14" s="11" t="s">
         <v>14</v>
       </c>
@@ -1787,7 +1514,7 @@
       <c r="I14" s="6"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="58"/>
+      <c r="A15" s="55"/>
       <c r="B15" s="11" t="s">
         <v>15</v>
       </c>
@@ -1808,7 +1535,7 @@
       <c r="I15" s="6"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="58"/>
+      <c r="A16" s="55"/>
       <c r="B16" s="11" t="s">
         <v>7</v>
       </c>
@@ -1829,7 +1556,7 @@
       <c r="I16" s="6"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="58"/>
+      <c r="A17" s="55"/>
       <c r="B17" s="11" t="s">
         <v>55</v>
       </c>
@@ -1850,7 +1577,7 @@
       <c r="I17" s="6"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="58"/>
+      <c r="A18" s="55"/>
       <c r="B18" s="11" t="s">
         <v>16</v>
       </c>
@@ -1871,18 +1598,18 @@
       <c r="I18" s="6"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="51"/>
-      <c r="B19" s="51"/>
-      <c r="C19" s="51"/>
-      <c r="D19" s="51"/>
-      <c r="E19" s="51"/>
-      <c r="F19" s="52"/>
+      <c r="A19" s="59"/>
+      <c r="B19" s="59"/>
+      <c r="C19" s="59"/>
+      <c r="D19" s="59"/>
+      <c r="E19" s="59"/>
+      <c r="F19" s="60"/>
       <c r="G19" s="13"/>
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
     </row>
     <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="50" t="s">
+      <c r="A20" s="58" t="s">
         <v>29</v>
       </c>
       <c r="B20" s="7" t="s">
@@ -1907,7 +1634,7 @@
       <c r="I20" s="6"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="50"/>
+      <c r="A21" s="58"/>
       <c r="B21" s="7" t="s">
         <v>18</v>
       </c>
@@ -1930,7 +1657,7 @@
       <c r="I21" s="6"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="50"/>
+      <c r="A22" s="58"/>
       <c r="B22" s="7" t="s">
         <v>19</v>
       </c>
@@ -1953,7 +1680,7 @@
       <c r="I22" s="6"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="50"/>
+      <c r="A23" s="58"/>
       <c r="B23" s="11" t="s">
         <v>20</v>
       </c>
@@ -1974,7 +1701,7 @@
       <c r="I23" s="6"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="50"/>
+      <c r="A24" s="58"/>
       <c r="B24" s="11" t="s">
         <v>21</v>
       </c>
@@ -1995,7 +1722,7 @@
       <c r="I24" s="6"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="50"/>
+      <c r="A25" s="58"/>
       <c r="B25" s="7" t="s">
         <v>22</v>
       </c>
@@ -2018,7 +1745,7 @@
       <c r="I25" s="6"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="50"/>
+      <c r="A26" s="58"/>
       <c r="B26" s="7" t="s">
         <v>8</v>
       </c>
@@ -2041,7 +1768,7 @@
       <c r="I26" s="6"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="50"/>
+      <c r="A27" s="58"/>
       <c r="B27" s="9" t="s">
         <v>51</v>
       </c>
@@ -2062,7 +1789,7 @@
       <c r="I27" s="6"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="50"/>
+      <c r="A28" s="58"/>
       <c r="B28" s="7" t="s">
         <v>53</v>
       </c>
@@ -2085,7 +1812,7 @@
       <c r="I28" s="6"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="50"/>
+      <c r="A29" s="58"/>
       <c r="B29" s="7" t="s">
         <v>52</v>
       </c>
@@ -2108,7 +1835,7 @@
       <c r="I29" s="6"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="50"/>
+      <c r="A30" s="58"/>
       <c r="B30" s="7" t="s">
         <v>42</v>
       </c>
@@ -2131,7 +1858,7 @@
       <c r="I30" s="6"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="50"/>
+      <c r="A31" s="58"/>
       <c r="B31" s="11" t="s">
         <v>23</v>
       </c>
@@ -2152,18 +1879,18 @@
       <c r="I31" s="6"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="53"/>
-      <c r="B32" s="53"/>
-      <c r="C32" s="53"/>
-      <c r="D32" s="53"/>
-      <c r="E32" s="53"/>
-      <c r="F32" s="54"/>
+      <c r="A32" s="50"/>
+      <c r="B32" s="50"/>
+      <c r="C32" s="50"/>
+      <c r="D32" s="50"/>
+      <c r="E32" s="50"/>
+      <c r="F32" s="51"/>
       <c r="G32" s="13"/>
       <c r="H32" s="6"/>
       <c r="I32" s="6"/>
     </row>
     <row r="33" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="56" t="s">
+      <c r="A33" s="53" t="s">
         <v>30</v>
       </c>
       <c r="B33" s="11" t="s">
@@ -2186,7 +1913,7 @@
       <c r="I33" s="6"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="56"/>
+      <c r="A34" s="53"/>
       <c r="B34" s="11" t="s">
         <v>25</v>
       </c>
@@ -2207,7 +1934,7 @@
       <c r="I34" s="6"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="56"/>
+      <c r="A35" s="53"/>
       <c r="B35" s="11" t="s">
         <v>26</v>
       </c>
@@ -2228,7 +1955,7 @@
       <c r="I35" s="6"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="56"/>
+      <c r="A36" s="53"/>
       <c r="B36" s="11" t="s">
         <v>27</v>
       </c>
@@ -2249,7 +1976,7 @@
       <c r="I36" s="6"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="56"/>
+      <c r="A37" s="53"/>
       <c r="B37" s="11" t="s">
         <v>35</v>
       </c>
@@ -2270,7 +1997,7 @@
       <c r="I37" s="6"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="56"/>
+      <c r="A38" s="53"/>
       <c r="B38" s="11" t="s">
         <v>34</v>
       </c>
@@ -2291,7 +2018,7 @@
       <c r="I38" s="6"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="56"/>
+      <c r="A39" s="53"/>
       <c r="B39" s="11" t="s">
         <v>28</v>
       </c>
@@ -2312,7 +2039,7 @@
       <c r="I39" s="6"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="56"/>
+      <c r="A40" s="53"/>
       <c r="B40" s="11" t="s">
         <v>11</v>
       </c>
@@ -2333,18 +2060,18 @@
       <c r="I40" s="6"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="55"/>
-      <c r="B41" s="55"/>
-      <c r="C41" s="55"/>
-      <c r="D41" s="55"/>
-      <c r="E41" s="55"/>
-      <c r="F41" s="55"/>
+      <c r="A41" s="52"/>
+      <c r="B41" s="52"/>
+      <c r="C41" s="52"/>
+      <c r="D41" s="52"/>
+      <c r="E41" s="52"/>
+      <c r="F41" s="52"/>
       <c r="G41" s="13"/>
       <c r="H41" s="6"/>
       <c r="I41" s="6"/>
     </row>
     <row r="42" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="57" t="s">
+      <c r="A42" s="54" t="s">
         <v>32</v>
       </c>
       <c r="B42" s="11" t="s">
@@ -2367,7 +2094,7 @@
       <c r="I42" s="6"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="57"/>
+      <c r="A43" s="54"/>
       <c r="B43" s="11" t="s">
         <v>6</v>
       </c>
@@ -2388,7 +2115,7 @@
       <c r="I43" s="6"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="57"/>
+      <c r="A44" s="54"/>
       <c r="B44" s="11" t="s">
         <v>36</v>
       </c>
@@ -2409,7 +2136,7 @@
       <c r="I44" s="6"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="57"/>
+      <c r="A45" s="54"/>
       <c r="B45" s="11" t="s">
         <v>37</v>
       </c>
@@ -2430,7 +2157,7 @@
       <c r="I45" s="6"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="57"/>
+      <c r="A46" s="54"/>
       <c r="B46" s="11"/>
       <c r="C46" s="12"/>
       <c r="D46" s="12"/>
@@ -2537,17 +2264,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A32:F32"/>
-    <mergeCell ref="A41:F41"/>
-    <mergeCell ref="A33:A40"/>
-    <mergeCell ref="A42:A46"/>
-    <mergeCell ref="A10:A18"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A3:A8"/>
     <mergeCell ref="A20:A31"/>
     <mergeCell ref="A9:F9"/>
     <mergeCell ref="A19:F19"/>
     <mergeCell ref="F1:G1"/>
+    <mergeCell ref="A32:F32"/>
+    <mergeCell ref="A41:F41"/>
+    <mergeCell ref="A33:A40"/>
+    <mergeCell ref="A42:A46"/>
+    <mergeCell ref="A10:A18"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2569,15 +2296,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="46.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="56" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -2600,1337 +2327,562 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20F1C7CD-19A3-4E4C-8995-F8BF8AD34968}">
-  <dimension ref="A2:G80"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFE0036B-A306-43EE-A865-F9C867BB9A87}">
+  <dimension ref="A2:D50"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:C42"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A53" sqref="A53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" customWidth="1"/>
-    <col min="2" max="2" width="22.5703125" customWidth="1"/>
-    <col min="3" max="3" width="61.5703125" customWidth="1"/>
-    <col min="4" max="4" width="70.7109375" style="24" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:4" s="23" customFormat="1" ht="46.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
-        <v>66</v>
-      </c>
-      <c r="B2" s="31" t="s">
-        <v>102</v>
-      </c>
-      <c r="C2" s="30" t="s">
-        <v>67</v>
-      </c>
-      <c r="D2" s="30" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="28"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-    </row>
-    <row r="4" spans="1:4" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="60" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" s="32">
-        <v>1</v>
-      </c>
-      <c r="C4" s="33" t="s">
-        <v>75</v>
-      </c>
-      <c r="D4" s="33" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="60"/>
-      <c r="B5" s="32">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="C5" s="32"/>
-      <c r="D5" s="33" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="60"/>
-      <c r="B6" s="32">
-        <v>1.2</v>
-      </c>
-      <c r="C6" s="32"/>
-      <c r="D6" s="33" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="60"/>
-      <c r="B7" s="32">
-        <v>1.3</v>
-      </c>
-      <c r="C7" s="32"/>
-      <c r="D7" s="33" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="60"/>
-      <c r="B8" s="32">
-        <v>1.4</v>
-      </c>
-      <c r="C8" s="32"/>
-      <c r="D8" s="33" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="60"/>
-      <c r="B9" s="32">
-        <v>1.5</v>
-      </c>
-      <c r="C9" s="32"/>
-      <c r="D9" s="33" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="60"/>
-      <c r="B10" s="32">
-        <v>1.6</v>
-      </c>
-      <c r="C10" s="32"/>
-      <c r="D10" s="33" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="60"/>
-      <c r="B11" s="32">
-        <v>1.7</v>
-      </c>
-      <c r="C11" s="32"/>
-      <c r="D11" s="33" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="60"/>
-      <c r="B12" s="32">
-        <v>1.8</v>
-      </c>
-      <c r="C12" s="32"/>
-      <c r="D12" s="33" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="60"/>
-      <c r="B13" s="34">
-        <v>2</v>
-      </c>
-      <c r="C13" s="35" t="s">
-        <v>76</v>
-      </c>
-      <c r="D13" s="33" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="60"/>
-      <c r="B14" s="34">
-        <v>2.1</v>
-      </c>
-      <c r="C14" s="36"/>
-      <c r="D14" s="33" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="60"/>
-      <c r="B15" s="34">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="C15" s="36"/>
-      <c r="D15" s="33" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="60"/>
-      <c r="B16" s="34">
-        <v>3</v>
-      </c>
-      <c r="C16" s="35" t="s">
-        <v>68</v>
-      </c>
-      <c r="D16" s="33"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="60"/>
-      <c r="B17" s="34">
-        <v>3.1</v>
-      </c>
-      <c r="C17" s="35" t="s">
-        <v>73</v>
-      </c>
-      <c r="D17" s="33"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="60"/>
-      <c r="B18" s="34">
-        <v>3.2</v>
-      </c>
-      <c r="C18" s="35" t="s">
-        <v>74</v>
-      </c>
-      <c r="D18" s="33"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="60"/>
-      <c r="B19" s="34">
-        <v>4</v>
-      </c>
-      <c r="C19" s="35" t="s">
-        <v>103</v>
-      </c>
-      <c r="D19" s="33"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="60"/>
-      <c r="B20" s="34">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="C20" s="35"/>
-      <c r="D20" s="33" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="60"/>
-      <c r="B21" s="34">
-        <v>4.2</v>
-      </c>
-      <c r="C21" s="35"/>
-      <c r="D21" s="33" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="60"/>
-      <c r="B22" s="34">
-        <v>4.3</v>
-      </c>
-      <c r="C22" s="35"/>
-      <c r="D22" s="33" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="60"/>
-      <c r="B23" s="34">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="C23" s="35"/>
-      <c r="D23" s="33" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="60"/>
-      <c r="B24" s="34">
-        <v>5</v>
-      </c>
-      <c r="C24" s="35" t="s">
-        <v>108</v>
-      </c>
-      <c r="D24" s="33"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="60"/>
-      <c r="B25" s="34">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="C25" s="35"/>
-      <c r="D25" s="33" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="60"/>
-      <c r="B26" s="34">
-        <v>5.2</v>
-      </c>
-      <c r="C26" s="35"/>
-      <c r="D26" s="33" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="60"/>
-      <c r="B27" s="34">
-        <v>5.3</v>
-      </c>
-      <c r="C27" s="35"/>
-      <c r="D27" s="33" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="60"/>
-      <c r="B28" s="34">
-        <v>6</v>
-      </c>
-      <c r="C28" s="35" t="s">
-        <v>122</v>
-      </c>
-      <c r="D28" s="33"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="60"/>
-      <c r="B29" s="34">
-        <v>7</v>
-      </c>
-      <c r="C29" s="35" t="s">
-        <v>123</v>
-      </c>
-      <c r="D29" s="33"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="60"/>
-      <c r="B30" s="34">
-        <v>8</v>
-      </c>
-      <c r="C30" s="35" t="s">
-        <v>124</v>
-      </c>
-      <c r="D30" s="33"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="60"/>
-      <c r="B31" s="34">
-        <v>9</v>
-      </c>
-      <c r="C31" s="35" t="s">
-        <v>125</v>
-      </c>
-      <c r="D31" s="33"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="60"/>
-      <c r="B32" s="34">
-        <v>10</v>
-      </c>
-      <c r="C32" s="35" t="s">
-        <v>126</v>
-      </c>
-      <c r="D32" s="33"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="60"/>
-      <c r="B33" s="34">
-        <v>11</v>
-      </c>
-      <c r="C33" s="35" t="s">
-        <v>127</v>
-      </c>
-      <c r="D33" s="33"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="60"/>
-      <c r="B34" s="34"/>
-      <c r="C34" s="35" t="s">
-        <v>128</v>
-      </c>
-      <c r="D34" s="33" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="60"/>
-      <c r="B35" s="34"/>
-      <c r="C35" s="35"/>
-      <c r="D35" s="33" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="60"/>
-      <c r="B36" s="34"/>
-      <c r="C36" s="35"/>
-      <c r="D36" s="33" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="60"/>
-      <c r="B37" s="34"/>
-      <c r="C37" s="35"/>
-      <c r="D37" s="33" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="60"/>
-      <c r="B38" s="34"/>
-      <c r="C38" s="35"/>
-      <c r="D38" s="33" t="s">
-        <v>132</v>
-      </c>
-      <c r="G38" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="60"/>
-      <c r="B39" s="34"/>
-      <c r="C39" s="35"/>
-      <c r="D39" s="33" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="60"/>
-      <c r="B40" s="34"/>
-      <c r="C40" s="35"/>
-      <c r="D40" s="33" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="60"/>
-      <c r="B41" s="34"/>
-      <c r="C41" s="35" t="s">
-        <v>134</v>
-      </c>
-      <c r="D41" s="33"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="60"/>
-      <c r="B42" s="34"/>
-      <c r="C42" s="35"/>
-      <c r="D42" s="33"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="62"/>
-      <c r="B43" s="62"/>
-      <c r="C43" s="62"/>
-      <c r="D43" s="62"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="61" t="s">
-        <v>33</v>
-      </c>
-      <c r="B44" s="37">
-        <v>4</v>
-      </c>
-      <c r="C44" s="38" t="s">
-        <v>69</v>
-      </c>
-      <c r="D44" s="39"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="61"/>
-      <c r="B45" s="37">
-        <v>5</v>
-      </c>
-      <c r="C45" s="38" t="s">
-        <v>70</v>
-      </c>
-      <c r="D45" s="39"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="61"/>
-      <c r="B46" s="37">
-        <v>6</v>
-      </c>
-      <c r="C46" s="38" t="s">
-        <v>71</v>
-      </c>
-      <c r="D46" s="39"/>
-    </row>
-    <row r="47" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A47" s="61"/>
-      <c r="B47" s="37">
-        <v>7</v>
-      </c>
-      <c r="C47" s="38" t="s">
-        <v>72</v>
-      </c>
-      <c r="D47" s="39"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="61"/>
-      <c r="B48" s="37">
-        <v>8</v>
-      </c>
-      <c r="C48" s="38" t="s">
-        <v>77</v>
-      </c>
-      <c r="D48" s="39" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="61"/>
-      <c r="B49" s="37">
-        <v>8.1</v>
-      </c>
-      <c r="C49" s="38"/>
-      <c r="D49" s="39" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="61"/>
-      <c r="B50" s="37">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="C50" s="38"/>
-      <c r="D50" s="39" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="61"/>
-      <c r="B51" s="37">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="C51" s="38"/>
-      <c r="D51" s="39" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="61"/>
-      <c r="B52" s="37">
-        <v>8.4</v>
-      </c>
-      <c r="C52" s="38"/>
-      <c r="D52" s="39" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="61"/>
-      <c r="B53" s="37">
-        <v>8.5</v>
-      </c>
-      <c r="C53" s="38"/>
-      <c r="D53" s="39" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="25"/>
-      <c r="B54" s="26"/>
-      <c r="C54" s="26"/>
-      <c r="D54" s="27"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="59" t="s">
-        <v>93</v>
-      </c>
-      <c r="B55" s="40">
-        <v>9</v>
-      </c>
-      <c r="C55" s="41" t="s">
-        <v>136</v>
-      </c>
-      <c r="D55" s="42"/>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="59"/>
-      <c r="B56" s="40">
-        <v>10</v>
-      </c>
-      <c r="C56" s="41" t="s">
-        <v>137</v>
-      </c>
-      <c r="D56" s="42"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="59"/>
-      <c r="B57" s="40">
-        <v>11</v>
-      </c>
-      <c r="C57" s="41" t="s">
-        <v>94</v>
-      </c>
-      <c r="D57" s="42"/>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="59"/>
-      <c r="B58" s="40">
-        <v>12</v>
-      </c>
-      <c r="C58" s="41" t="s">
-        <v>95</v>
-      </c>
-      <c r="D58" s="42"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="59"/>
-      <c r="B59" s="40">
-        <v>13</v>
-      </c>
-      <c r="C59" s="41" t="s">
-        <v>96</v>
-      </c>
-      <c r="D59" s="42"/>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="59"/>
-      <c r="B60" s="40">
-        <v>14</v>
-      </c>
-      <c r="C60" s="41" t="s">
-        <v>97</v>
-      </c>
-      <c r="D60" s="42"/>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="25"/>
-      <c r="B61" s="26"/>
-      <c r="C61" s="26"/>
-      <c r="D61" s="27"/>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="63" t="s">
-        <v>29</v>
-      </c>
-      <c r="B62" s="43">
-        <v>1</v>
-      </c>
-      <c r="C62" s="44" t="s">
-        <v>103</v>
-      </c>
-      <c r="D62" s="45"/>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="63"/>
-      <c r="B63" s="43">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="C63" s="44"/>
-      <c r="D63" s="45" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="63"/>
-      <c r="B64" s="43">
-        <v>1.2</v>
-      </c>
-      <c r="C64" s="44"/>
-      <c r="D64" s="45" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="63"/>
-      <c r="B65" s="43">
-        <v>1.3</v>
-      </c>
-      <c r="C65" s="44"/>
-      <c r="D65" s="45" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="63"/>
-      <c r="B66" s="43"/>
-      <c r="C66" s="44"/>
-      <c r="D66" s="45" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="63"/>
-      <c r="B67" s="43"/>
-      <c r="C67" s="44" t="s">
-        <v>119</v>
-      </c>
-      <c r="D67" s="45"/>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="63"/>
-      <c r="B68" s="43"/>
-      <c r="C68" s="44"/>
-      <c r="D68" s="45" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="63"/>
-      <c r="B69" s="43"/>
-      <c r="C69" s="44"/>
-      <c r="D69" s="47" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="63"/>
-      <c r="B70" s="43">
-        <v>2</v>
-      </c>
-      <c r="C70" s="44" t="s">
-        <v>108</v>
-      </c>
-      <c r="D70" s="45"/>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="63"/>
-      <c r="B71" s="43"/>
-      <c r="C71" s="44"/>
-      <c r="D71" s="45" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="63"/>
-      <c r="B72" s="43"/>
-      <c r="C72" s="44"/>
-      <c r="D72" s="45" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="63"/>
-      <c r="B73" s="43"/>
-      <c r="C73" s="44"/>
-      <c r="D73" s="45" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="63"/>
-      <c r="B74" s="43">
-        <v>3</v>
-      </c>
-      <c r="C74" s="44" t="s">
-        <v>112</v>
-      </c>
-      <c r="D74" s="45"/>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="63"/>
-      <c r="B75" s="43"/>
-      <c r="C75" s="44" t="s">
-        <v>113</v>
-      </c>
-      <c r="D75" s="45"/>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="63"/>
-      <c r="B76" s="43">
-        <v>4</v>
-      </c>
-      <c r="C76" s="44" t="s">
-        <v>118</v>
-      </c>
-      <c r="D76" s="45"/>
-    </row>
-    <row r="77" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="63"/>
-      <c r="B77" s="43">
-        <v>5</v>
-      </c>
-      <c r="C77" s="46" t="s">
-        <v>114</v>
-      </c>
-      <c r="D77" s="45" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="63"/>
-      <c r="B78" s="43"/>
-      <c r="C78" s="44"/>
-      <c r="D78" s="45" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="63"/>
-      <c r="B79" s="43"/>
-      <c r="C79" s="44"/>
-      <c r="D79" s="45" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="63"/>
-      <c r="B80" s="43"/>
-      <c r="C80" s="44"/>
-      <c r="D80" s="45"/>
-    </row>
-  </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A55:A60"/>
-    <mergeCell ref="A4:A42"/>
-    <mergeCell ref="A44:A53"/>
-    <mergeCell ref="A43:D43"/>
-    <mergeCell ref="A62:A80"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFE0036B-A306-43EE-A865-F9C867BB9A87}">
-  <dimension ref="A2:D50"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C56" sqref="C56"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="57.140625" style="64" customWidth="1"/>
-    <col min="2" max="2" width="37.5703125" style="64" customWidth="1"/>
-    <col min="3" max="3" width="70.85546875" style="64" customWidth="1"/>
-    <col min="4" max="4" width="79.85546875" style="64" customWidth="1"/>
+    <col min="1" max="1" width="57.140625" style="24" customWidth="1"/>
+    <col min="2" max="2" width="37.5703125" style="24" customWidth="1"/>
+    <col min="3" max="3" width="70.85546875" style="24" customWidth="1"/>
+    <col min="4" max="4" width="79.85546875" style="24" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2" s="23" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="70" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" s="47"/>
+      <c r="C3" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="71"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="D4" s="30" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="72"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="D5" s="27" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="64" t="s">
+        <v>71</v>
+      </c>
+      <c r="B6" s="44"/>
+      <c r="C6" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="D6" s="32" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="65"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="D7" s="33" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="66"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="D8" s="34" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="64" t="s">
         <v>67</v>
       </c>
-      <c r="B2" s="30" t="s">
-        <v>168</v>
-      </c>
-      <c r="C2" s="30" t="s">
+      <c r="B9" s="44"/>
+      <c r="C9" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="D9" s="25" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="65"/>
+      <c r="B10" s="45"/>
+      <c r="C10" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="D10" s="26" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="66"/>
+      <c r="B11" s="46"/>
+      <c r="C11" s="36" t="s">
+        <v>89</v>
+      </c>
+      <c r="D11" s="36" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="64" t="s">
+        <v>68</v>
+      </c>
+      <c r="B12" s="44"/>
+      <c r="C12" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="D12" s="25" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="65"/>
+      <c r="B13" s="45"/>
+      <c r="C13" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="D13" s="26" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="66"/>
+      <c r="B14" s="46"/>
+      <c r="C14" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="D14" s="27" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="B15" s="40"/>
+      <c r="C15" s="37" t="s">
+        <v>98</v>
+      </c>
+      <c r="D15" s="38" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="64" t="s">
+        <v>72</v>
+      </c>
+      <c r="B16" s="44"/>
+      <c r="C16" s="41" t="s">
+        <v>100</v>
+      </c>
+      <c r="D16" s="41" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="65"/>
+      <c r="B17" s="45"/>
+      <c r="C17" s="42" t="s">
+        <v>102</v>
+      </c>
+      <c r="D17" s="42" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="65"/>
+      <c r="B18" s="45"/>
+      <c r="C18" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="D18" s="42" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="65"/>
+      <c r="B19" s="45"/>
+      <c r="C19" s="42" t="s">
+        <v>106</v>
+      </c>
+      <c r="D19" s="42" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="66"/>
+      <c r="B20" s="46"/>
+      <c r="C20" s="43" t="s">
+        <v>108</v>
+      </c>
+      <c r="D20" s="43" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="64" t="s">
+        <v>73</v>
+      </c>
+      <c r="B21" s="64" t="s">
+        <v>112</v>
+      </c>
+      <c r="C21" s="41" t="s">
+        <v>100</v>
+      </c>
+      <c r="D21" s="41" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="65"/>
+      <c r="B22" s="65"/>
+      <c r="C22" s="42" t="s">
+        <v>110</v>
+      </c>
+      <c r="D22" s="42" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="65"/>
+      <c r="B23" s="65"/>
+      <c r="C23" s="42" t="s">
+        <v>113</v>
+      </c>
+      <c r="D23" s="42" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="65"/>
+      <c r="B24" s="65"/>
+      <c r="C24" s="42" t="s">
+        <v>106</v>
+      </c>
+      <c r="D24" s="42" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="66"/>
+      <c r="B25" s="66"/>
+      <c r="C25" s="43" t="s">
+        <v>108</v>
+      </c>
+      <c r="D25" s="43" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="40" t="s">
+        <v>74</v>
+      </c>
+      <c r="B26" s="40" t="s">
+        <v>115</v>
+      </c>
+      <c r="C26" s="37" t="s">
+        <v>116</v>
+      </c>
+      <c r="D26" s="37" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="40" t="s">
+        <v>75</v>
+      </c>
+      <c r="B27" s="40"/>
+      <c r="C27" s="49" t="s">
+        <v>123</v>
+      </c>
+      <c r="D27" s="49" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="64" t="s">
+        <v>76</v>
+      </c>
+      <c r="B28" s="61"/>
+      <c r="C28" s="41" t="s">
+        <v>100</v>
+      </c>
+      <c r="D28" s="41" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="65"/>
+      <c r="B29" s="63"/>
+      <c r="C29" s="42" t="s">
+        <v>110</v>
+      </c>
+      <c r="D29" s="42" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="65"/>
+      <c r="B30" s="63"/>
+      <c r="C30" s="42" t="s">
+        <v>119</v>
+      </c>
+      <c r="D30" s="42" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="66"/>
+      <c r="B31" s="62"/>
+      <c r="C31" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="D31" s="43" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="64" t="s">
+        <v>77</v>
+      </c>
+      <c r="B32" s="61"/>
+      <c r="C32" s="41" t="s">
+        <v>100</v>
+      </c>
+      <c r="D32" s="41" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="65"/>
+      <c r="B33" s="63"/>
+      <c r="C33" s="42" t="s">
+        <v>110</v>
+      </c>
+      <c r="D33" s="42" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="65"/>
+      <c r="B34" s="63"/>
+      <c r="C34" s="42" t="s">
+        <v>125</v>
+      </c>
+      <c r="D34" s="42" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="65"/>
+      <c r="B35" s="63"/>
+      <c r="C35" s="42" t="s">
+        <v>121</v>
+      </c>
+      <c r="D35" s="42" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="65"/>
+      <c r="B36" s="63"/>
+      <c r="C36" s="42" t="s">
+        <v>126</v>
+      </c>
+      <c r="D36" s="42" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="66"/>
+      <c r="B37" s="62"/>
+      <c r="C37" s="43" t="s">
+        <v>127</v>
+      </c>
+      <c r="D37" s="39" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="64" t="s">
+        <v>78</v>
+      </c>
+      <c r="B38" s="61" t="s">
+        <v>130</v>
+      </c>
+      <c r="C38" s="41" t="s">
+        <v>100</v>
+      </c>
+      <c r="D38" s="41" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="65"/>
+      <c r="B39" s="63"/>
+      <c r="C39" s="42" t="s">
+        <v>110</v>
+      </c>
+      <c r="D39" s="42" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="65"/>
+      <c r="B40" s="63"/>
+      <c r="C40" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="D40" s="42" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="65"/>
+      <c r="B41" s="62"/>
+      <c r="C41" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="D41" s="43" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="64" t="s">
+        <v>134</v>
+      </c>
+      <c r="B42" s="67" t="s">
+        <v>135</v>
+      </c>
+      <c r="C42" s="41" t="s">
+        <v>100</v>
+      </c>
+      <c r="D42" s="41" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="65"/>
+      <c r="B43" s="68"/>
+      <c r="C43" s="42" t="s">
+        <v>110</v>
+      </c>
+      <c r="D43" s="42" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="65"/>
+      <c r="B44" s="68"/>
+      <c r="C44" s="42" t="s">
+        <v>137</v>
+      </c>
+      <c r="D44" s="42" t="s">
         <v>138</v>
       </c>
-      <c r="D2" s="30" t="s">
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="65"/>
+      <c r="B45" s="68"/>
+      <c r="C45" s="42" t="s">
+        <v>121</v>
+      </c>
+      <c r="D45" s="42" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="66"/>
+      <c r="B46" s="69"/>
+      <c r="C46" s="43" t="s">
+        <v>139</v>
+      </c>
+      <c r="D46" s="43" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="69" t="s">
-        <v>75</v>
-      </c>
-      <c r="B3" s="94"/>
-      <c r="C3" s="72" t="s">
-        <v>139</v>
-      </c>
-      <c r="D3" s="72" t="s">
+    <row r="47" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="61" t="s">
+        <v>80</v>
+      </c>
+      <c r="B47" s="61" t="s">
+        <v>144</v>
+      </c>
+      <c r="C47" s="41" t="s">
+        <v>100</v>
+      </c>
+      <c r="D47" s="41" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A48" s="62"/>
+      <c r="B48" s="62"/>
+      <c r="C48" s="43" t="s">
+        <v>142</v>
+      </c>
+      <c r="D48" s="27" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="40" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="70"/>
-      <c r="B4" s="95"/>
-      <c r="C4" s="73" t="s">
-        <v>148</v>
-      </c>
-      <c r="D4" s="73" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="71"/>
-      <c r="B5" s="68"/>
-      <c r="C5" s="74" t="s">
-        <v>147</v>
-      </c>
-      <c r="D5" s="67" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="83" t="s">
-        <v>76</v>
-      </c>
-      <c r="B6" s="90"/>
-      <c r="C6" s="65" t="s">
-        <v>144</v>
-      </c>
-      <c r="D6" s="75" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="84"/>
-      <c r="B7" s="91"/>
-      <c r="C7" s="66" t="s">
-        <v>145</v>
-      </c>
-      <c r="D7" s="76" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="85"/>
-      <c r="B8" s="92"/>
-      <c r="C8" s="67" t="s">
-        <v>146</v>
-      </c>
-      <c r="D8" s="77" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="83" t="s">
-        <v>68</v>
-      </c>
-      <c r="B9" s="90"/>
-      <c r="C9" s="65" t="s">
-        <v>151</v>
-      </c>
-      <c r="D9" s="65" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="84"/>
-      <c r="B10" s="91"/>
-      <c r="C10" s="66" t="s">
-        <v>152</v>
-      </c>
-      <c r="D10" s="66" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="85"/>
-      <c r="B11" s="92"/>
-      <c r="C11" s="79" t="s">
-        <v>146</v>
-      </c>
-      <c r="D11" s="79" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="83" t="s">
-        <v>73</v>
-      </c>
-      <c r="B12" s="90"/>
-      <c r="C12" s="65" t="s">
-        <v>153</v>
-      </c>
-      <c r="D12" s="65" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="84"/>
-      <c r="B13" s="91"/>
-      <c r="C13" s="66" t="s">
-        <v>154</v>
-      </c>
-      <c r="D13" s="66" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="85"/>
-      <c r="B14" s="92"/>
-      <c r="C14" s="67" t="s">
-        <v>146</v>
-      </c>
-      <c r="D14" s="67" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="86" t="s">
-        <v>74</v>
-      </c>
-      <c r="B15" s="86"/>
-      <c r="C15" s="80" t="s">
-        <v>155</v>
-      </c>
-      <c r="D15" s="81" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="83" t="s">
-        <v>103</v>
-      </c>
-      <c r="B16" s="90"/>
-      <c r="C16" s="87" t="s">
-        <v>157</v>
-      </c>
-      <c r="D16" s="87" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="84"/>
-      <c r="B17" s="91"/>
-      <c r="C17" s="88" t="s">
-        <v>159</v>
-      </c>
-      <c r="D17" s="88" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="84"/>
-      <c r="B18" s="91"/>
-      <c r="C18" s="88" t="s">
-        <v>161</v>
-      </c>
-      <c r="D18" s="88" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="84"/>
-      <c r="B19" s="91"/>
-      <c r="C19" s="88" t="s">
-        <v>163</v>
-      </c>
-      <c r="D19" s="88" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="85"/>
-      <c r="B20" s="92"/>
-      <c r="C20" s="89" t="s">
-        <v>165</v>
-      </c>
-      <c r="D20" s="89" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="83" t="s">
-        <v>108</v>
-      </c>
-      <c r="B21" s="83" t="s">
-        <v>169</v>
-      </c>
-      <c r="C21" s="87" t="s">
-        <v>157</v>
-      </c>
-      <c r="D21" s="87" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="84"/>
-      <c r="B22" s="84"/>
-      <c r="C22" s="88" t="s">
-        <v>167</v>
-      </c>
-      <c r="D22" s="88" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="84"/>
-      <c r="B23" s="84"/>
-      <c r="C23" s="88" t="s">
-        <v>170</v>
-      </c>
-      <c r="D23" s="88" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="84"/>
-      <c r="B24" s="84"/>
-      <c r="C24" s="88" t="s">
-        <v>163</v>
-      </c>
-      <c r="D24" s="88" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="85"/>
-      <c r="B25" s="85"/>
-      <c r="C25" s="89" t="s">
-        <v>165</v>
-      </c>
-      <c r="D25" s="89" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="86" t="s">
-        <v>122</v>
-      </c>
-      <c r="B26" s="86" t="s">
-        <v>172</v>
-      </c>
-      <c r="C26" s="80" t="s">
-        <v>173</v>
-      </c>
-      <c r="D26" s="80" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="86" t="s">
+      <c r="B49" s="40"/>
+      <c r="C49" s="49" t="s">
         <v>123</v>
       </c>
-      <c r="B27" s="86"/>
-      <c r="C27" s="99" t="s">
-        <v>180</v>
-      </c>
-      <c r="D27" s="99" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="83" t="s">
-        <v>124</v>
-      </c>
-      <c r="B28" s="96"/>
-      <c r="C28" s="87" t="s">
-        <v>157</v>
-      </c>
-      <c r="D28" s="87" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="84"/>
-      <c r="B29" s="97"/>
-      <c r="C29" s="88" t="s">
-        <v>167</v>
-      </c>
-      <c r="D29" s="88" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="84"/>
-      <c r="B30" s="97"/>
-      <c r="C30" s="88" t="s">
-        <v>176</v>
-      </c>
-      <c r="D30" s="88" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="85"/>
-      <c r="B31" s="98"/>
-      <c r="C31" s="89" t="s">
-        <v>178</v>
-      </c>
-      <c r="D31" s="89" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="83" t="s">
-        <v>125</v>
-      </c>
-      <c r="B32" s="96"/>
-      <c r="C32" s="87" t="s">
-        <v>157</v>
-      </c>
-      <c r="D32" s="87" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="84"/>
-      <c r="B33" s="97"/>
-      <c r="C33" s="88" t="s">
-        <v>167</v>
-      </c>
-      <c r="D33" s="88" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="84"/>
-      <c r="B34" s="97"/>
-      <c r="C34" s="88" t="s">
-        <v>182</v>
-      </c>
-      <c r="D34" s="88" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="84"/>
-      <c r="B35" s="97"/>
-      <c r="C35" s="88" t="s">
-        <v>178</v>
-      </c>
-      <c r="D35" s="88" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="84"/>
-      <c r="B36" s="97"/>
-      <c r="C36" s="88" t="s">
-        <v>183</v>
-      </c>
-      <c r="D36" s="88" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="85"/>
-      <c r="B37" s="98"/>
-      <c r="C37" s="89" t="s">
-        <v>184</v>
-      </c>
-      <c r="D37" s="82" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="83" t="s">
-        <v>126</v>
-      </c>
-      <c r="B38" s="96" t="s">
-        <v>187</v>
-      </c>
-      <c r="C38" s="87" t="s">
-        <v>157</v>
-      </c>
-      <c r="D38" s="87" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="84"/>
-      <c r="B39" s="97"/>
-      <c r="C39" s="88" t="s">
-        <v>167</v>
-      </c>
-      <c r="D39" s="88" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="84"/>
-      <c r="B40" s="97"/>
-      <c r="C40" s="88" t="s">
-        <v>188</v>
-      </c>
-      <c r="D40" s="88" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="84"/>
-      <c r="B41" s="98"/>
-      <c r="C41" s="89" t="s">
-        <v>178</v>
-      </c>
-      <c r="D41" s="89" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="83" t="s">
-        <v>191</v>
-      </c>
-      <c r="B42" s="93" t="s">
-        <v>192</v>
-      </c>
-      <c r="C42" s="87" t="s">
-        <v>157</v>
-      </c>
-      <c r="D42" s="87" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="84"/>
-      <c r="B43" s="101"/>
-      <c r="C43" s="88" t="s">
-        <v>167</v>
-      </c>
-      <c r="D43" s="88" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="84"/>
-      <c r="B44" s="101"/>
-      <c r="C44" s="88" t="s">
-        <v>194</v>
-      </c>
-      <c r="D44" s="88" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="84"/>
-      <c r="B45" s="101"/>
-      <c r="C45" s="88" t="s">
-        <v>178</v>
-      </c>
-      <c r="D45" s="88" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="85"/>
-      <c r="B46" s="100"/>
-      <c r="C46" s="89" t="s">
-        <v>196</v>
-      </c>
-      <c r="D46" s="89" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="96" t="s">
-        <v>134</v>
-      </c>
-      <c r="B47" s="96" t="s">
-        <v>201</v>
-      </c>
-      <c r="C47" s="87" t="s">
-        <v>157</v>
-      </c>
-      <c r="D47" s="87" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A48" s="98"/>
-      <c r="B48" s="98"/>
-      <c r="C48" s="89" t="s">
-        <v>199</v>
-      </c>
-      <c r="D48" s="67" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="86" t="s">
-        <v>198</v>
-      </c>
-      <c r="B49" s="86"/>
-      <c r="C49" s="99" t="s">
-        <v>180</v>
-      </c>
-      <c r="D49" s="99" t="s">
-        <v>180</v>
+      <c r="D49" s="49" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="86" t="s">
-        <v>128</v>
-      </c>
-      <c r="B50" s="78"/>
+      <c r="A50" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="B50" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A16:A20"/>
+    <mergeCell ref="A21:A25"/>
+    <mergeCell ref="B21:B25"/>
+    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="B28:B31"/>
     <mergeCell ref="B47:B48"/>
     <mergeCell ref="A47:A48"/>
     <mergeCell ref="B32:B37"/>
@@ -3939,15 +2891,6 @@
     <mergeCell ref="A38:A41"/>
     <mergeCell ref="B42:B46"/>
     <mergeCell ref="A42:A46"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="A16:A20"/>
-    <mergeCell ref="A21:A25"/>
-    <mergeCell ref="B21:B25"/>
-    <mergeCell ref="A28:A31"/>
-    <mergeCell ref="B28:B31"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="A9:A11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
